--- a/Groupes MIA.xlsx
+++ b/Groupes MIA.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amary\Documents\GitHub\MIA_IREN-MTM_2025-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A4906-1ABD-4F89-B256-844E533BBA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2E9DA-3A29-4FC1-AE4B-F9219B80C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -63,22 +58,22 @@
     <t>Fatima Faik</t>
   </si>
   <si>
-    <t xml:space="preserve">Célia Garjah, , </t>
-  </si>
-  <si>
     <t>Gabin Sorge</t>
   </si>
   <si>
     <t xml:space="preserve"> Stanislas Prevost</t>
   </si>
   <si>
-    <t xml:space="preserve">Amary Le Bideau,, </t>
-  </si>
-  <si>
     <t>Clara Brehon</t>
   </si>
   <si>
     <t>Prénom Nom</t>
+  </si>
+  <si>
+    <t>Amary Le Bideau</t>
+  </si>
+  <si>
+    <t>Célia Garjah</t>
   </si>
 </sst>
 </file>
@@ -127,9 +122,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,24 +345,24 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -375,7 +370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -383,7 +378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -391,7 +386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -399,7 +394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -407,7 +402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -415,7 +410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -423,7 +418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -431,7 +426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -439,7 +434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -447,15 +442,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -463,36 +458,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
